--- a/biology/Médecine/Jessica_Green_(biologiste)/Jessica_Green_(biologiste).xlsx
+++ b/biology/Médecine/Jessica_Green_(biologiste)/Jessica_Green_(biologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jessica Green est une ingénieure, écologiste et entrepreneuse américaine. Elle est l'auteur de plusieurs travaux sur l'écologie microbienne et la génomique. En parallèle de ses recherches, elle enseigne à l’université de l’Oregon. Au sein de celle-ci, elle a fondé et dirige le Centre de biologie et de l’environnement bâti[1]. Elle enseigne également en tant que professeure externe à l’Institut de Santa Fe[2]. Elle a cofondé Phylagen Inc. en 2015 avec Harrison Dillon, le fondateur de Solazyme[3]. 
-Ses deux conférences TED sur le microbiome de l'environnement bâti ont été vues plus de 1,5 million de fois[4],[5]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jessica Green est une ingénieure, écologiste et entrepreneuse américaine. Elle est l'auteur de plusieurs travaux sur l'écologie microbienne et la génomique. En parallèle de ses recherches, elle enseigne à l’université de l’Oregon. Au sein de celle-ci, elle a fondé et dirige le Centre de biologie et de l’environnement bâti. Elle enseigne également en tant que professeure externe à l’Institut de Santa Fe. Elle a cofondé Phylagen Inc. en 2015 avec Harrison Dillon, le fondateur de Solazyme. 
+Ses deux conférences TED sur le microbiome de l'environnement bâti ont été vues plus de 1,5 million de fois,. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jessica Green est diplômée d'un doctorat en génie nucléaire et d'une maîtrise de sciences en génie civil et environnemental à l’université de Californie à Berkeley, ainsi que d’un BS en génie civil et environnemental de la Magna Cum Laude de l’université de Californie à Los Angeles. 
 </t>
@@ -543,9 +557,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Green a reçu une bourse TED en 2010 et une bourse senior TED en 2011[6]. En 2013, elle a reçu une bourse Guggenheim[7] pour sa contribution à un roman graphique de science-fiction sur le microbiome humain[8]. En 2013, elle a reçu une Chaire d'excellence internationale Blaise Pascal.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Green a reçu une bourse TED en 2010 et une bourse senior TED en 2011. En 2013, elle a reçu une bourse Guggenheim pour sa contribution à un roman graphique de science-fiction sur le microbiome humain. En 2013, elle a reçu une Chaire d'excellence internationale Blaise Pascal.
 </t>
         </is>
       </c>
